--- a/wc_quarters.xlsx
+++ b/wc_quarters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\PYTON\DSwPiR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A2CC82-0723-469D-BE68-7F5DDD10D5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC5EDF-3A78-4FC1-BB80-F60DEA62D0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="1590" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{000082E0-29FC-4773-B1DB-A1B1A4EB733D}"/>
   </bookViews>
@@ -9228,7 +9228,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9316,14 +9316,14 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <f>VLOOKUP(A2,[1]Sheet1!$D$2:$E$36,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L5" si="0">E2-F2</f>

--- a/wc_quarters.xlsx
+++ b/wc_quarters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\PYTON\DSwPiR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC5EDF-3A78-4FC1-BB80-F60DEA62D0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CB8BB-F45B-4231-9083-072EF4C8CABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1590" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{000082E0-29FC-4773-B1DB-A1B1A4EB733D}"/>
+    <workbookView xWindow="3825" yWindow="6930" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{000082E0-29FC-4773-B1DB-A1B1A4EB733D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -9228,7 +9228,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9316,14 +9316,14 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <f>VLOOKUP(A2,[1]Sheet1!$D$2:$E$36,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L5" si="0">E2-F2</f>
